--- a/inventory_11-09-21.xlsx
+++ b/inventory_11-09-21.xlsx
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C3" s="115" t="inlineStr">
         <is>
-          <t>November 9, 2021  -  06:41 AM PST</t>
+          <t>November 9, 2021  -  10:07 AM PST</t>
         </is>
       </c>
       <c r="D3" s="116" t="n"/>
